--- a/Hunde/Hundedaten_Gruppe.xlsx
+++ b/Hunde/Hundedaten_Gruppe.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,54 +375,69 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Bez_PLZ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Bez_Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Bez_Fläche</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Bez_Besch</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Bez_EINW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Bez_BEV_DICHTE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Hunde_pro_m2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Kampfhunde_pro_m2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hund_pro_EW</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Kampfhund_pro_EW</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unbekannt</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bekannt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ausria 1010</t>
+          <t>Austria 1010</t>
         </is>
       </c>
       <c r="B2">
@@ -431,40 +446,49 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2">
+        <v>1010</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Innere Stadt</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2869000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>108679</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15867</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5530</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.000167654234925061</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.394214011850819e-006</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.03031448919140354</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.0002520955442112561</v>
+      </c>
+      <c r="N2">
+        <v>93</v>
+      </c>
+      <c r="O2">
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ausria 1020</t>
+          <t>Austria 1020</t>
         </is>
       </c>
       <c r="B3">
@@ -473,40 +497,49 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3">
+        <v>1020</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Leopoldstadt</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19242000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>66945</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>105237</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5469</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0001335100301423968</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.039392994491217e-006</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.02441156627421914</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0001900472267358439</v>
+      </c>
+      <c r="N3">
+        <v>546</v>
+      </c>
+      <c r="O3">
+        <v>2023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ausria 1030</t>
+          <t>Austria 1030</t>
         </is>
       </c>
       <c r="B4">
@@ -515,40 +548,49 @@
       <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4">
+        <v>1030</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Landstraße</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7398000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>101100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>93248</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12604</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.0003034603947012706</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.162746688294134e-006</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.02407558339052848</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.0001715854495538778</v>
+      </c>
+      <c r="N4">
+        <v>460</v>
+      </c>
+      <c r="O4">
+        <v>1785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ausria 1040</t>
+          <t>Austria 1040</t>
         </is>
       </c>
       <c r="B5">
@@ -557,40 +599,49 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5">
+        <v>1040</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Wieden</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1775000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>28439</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>33075</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>18634</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0003808450704225352</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.943661971830986e-006</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.02043839758125473</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.0002116402116402117</v>
+      </c>
+      <c r="N5">
+        <v>127</v>
+      </c>
+      <c r="O5">
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ausria 1050</t>
+          <t>Austria 1050</t>
         </is>
       </c>
       <c r="B6">
@@ -599,40 +650,49 @@
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6">
+        <v>1050</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Margareten</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2012000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20567</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>54373</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>27024</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.0004642147117296222</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5.964214711729622e-006</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.01717764331561621</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.0002206977727916429</v>
+      </c>
+      <c r="N6">
+        <v>197</v>
+      </c>
+      <c r="O6">
+        <v>737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ausria 1060</t>
+          <t>Austria 1060</t>
         </is>
       </c>
       <c r="B7">
@@ -641,40 +701,49 @@
       <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7">
+        <v>1060</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Mariahilf</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1455000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>28676</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31336</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21537</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.000422680412371134</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8.934707903780069e-006</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.0196259892775083</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.0004148583099310697</v>
+      </c>
+      <c r="N7">
+        <v>146</v>
+      </c>
+      <c r="O7">
+        <v>469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ausria 1070</t>
+          <t>Austria 1070</t>
         </is>
       </c>
       <c r="B8">
@@ -683,40 +752,49 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8">
+        <v>1070</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Neubau</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1608000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>33592</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31683</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>19703</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.0003768656716417911</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3.73134328358209e-006</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.01912697661206325</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.0001893760060600322</v>
+      </c>
+      <c r="N8">
+        <v>115</v>
+      </c>
+      <c r="O8">
+        <v>491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ausria 1080</t>
+          <t>Austria 1080</t>
         </is>
       </c>
       <c r="B9">
@@ -725,40 +803,49 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9">
+        <v>1080</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Josefstadt</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1090000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15762</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>24365</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>22353</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.0004568807339449541</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5.504587155963303e-006</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.02043915452493331</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.0002462548737943772</v>
+      </c>
+      <c r="N9">
+        <v>121</v>
+      </c>
+      <c r="O9">
+        <v>377</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ausria 1090</t>
+          <t>Austria 1090</t>
         </is>
       </c>
       <c r="B10">
@@ -767,40 +854,49 @@
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10">
+        <v>1090</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Alsergrund</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2967000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>49847</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>41812</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>14092</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.0003080552746882373</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3.707448601280755e-006</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.021859753180905</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.0002630823686979814</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ausria 1100</t>
+          <t>Austria 1100</t>
         </is>
       </c>
       <c r="B11">
@@ -809,40 +905,49 @@
       <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11">
+        <v>1100</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Favoriten</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31828000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>76051</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>210573</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6616</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.0001278748271961795</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.425662938293327e-007</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.01932821396855248</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.0001424684076306079</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>4069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ausria 1110</t>
+          <t>Austria 1110</t>
         </is>
       </c>
       <c r="B12">
@@ -851,40 +956,49 @@
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12">
+        <v>1110</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Simmering</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>23256000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>36983</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>105022</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4516</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.0001473168214654283</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8.599931200550395e-007</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.03262173639808802</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.0001904362895393346</v>
+      </c>
+      <c r="N12">
+        <v>673</v>
+      </c>
+      <c r="O12">
+        <v>2753</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ausria 1120</t>
+          <t>Austria 1120</t>
         </is>
       </c>
       <c r="B13">
@@ -893,40 +1007,49 @@
       <c r="C13">
         <v>24</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13">
+        <v>1120</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Meidling</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8103000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>38336</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>96998</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11971</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.0002901394545230161</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.961865975564606e-006</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.02423761314666282</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.000247427782016124</v>
+      </c>
+      <c r="N13">
+        <v>471</v>
+      </c>
+      <c r="O13">
+        <v>1880</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ausria 1130</t>
+          <t>Austria 1130</t>
         </is>
       </c>
       <c r="B14">
@@ -935,40 +1058,49 @@
       <c r="C14">
         <v>14</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14">
+        <v>1130</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Hietzing</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>37715000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>24184</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>53903</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1429</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5.308232798621239e-005</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3.71205090812674e-007</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.03714078993748029</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.0002597258037586034</v>
+      </c>
+      <c r="N14">
+        <v>436</v>
+      </c>
+      <c r="O14">
+        <v>1566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ausria 1140</t>
+          <t>Austria 1140</t>
         </is>
       </c>
       <c r="B15">
@@ -977,40 +1109,49 @@
       <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15">
+        <v>1140</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Penzing</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>33763000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>29830</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>93366</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2765</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8.580398661256405e-005</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6.51600864852057e-007</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.03102842576526787</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.000235631814579183</v>
+      </c>
+      <c r="N15">
+        <v>622</v>
+      </c>
+      <c r="O15">
+        <v>2275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ausria 1150</t>
+          <t>Austria 1150</t>
         </is>
       </c>
       <c r="B16">
@@ -1019,40 +1160,49 @@
       <c r="C16">
         <v>19</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16">
+        <v>1150</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Rudolfsheim-Fünfhaus</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3918000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>29852</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>76137</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>19433</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.0003404798366513527</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4.849412965798877e-006</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.01752104758527391</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.0002495501530136465</v>
+      </c>
+      <c r="N16">
+        <v>281</v>
+      </c>
+      <c r="O16">
+        <v>1053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ausria 1160</t>
+          <t>Austria 1160</t>
         </is>
       </c>
       <c r="B17">
@@ -1061,40 +1211,49 @@
       <c r="C17">
         <v>17</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17">
+        <v>1160</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Ottakring</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>8673000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>28509</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>102480</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>11816</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.000233713824512856</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.960106076328837e-006</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.01977946916471507</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.0001658860265417643</v>
+      </c>
+      <c r="N17">
+        <v>423</v>
+      </c>
+      <c r="O17">
+        <v>1604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ausria 1170</t>
+          <t>Austria 1170</t>
         </is>
       </c>
       <c r="B18">
@@ -1103,40 +1262,49 @@
       <c r="C18">
         <v>13</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18">
+        <v>1170</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Hernals</t>
         </is>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>11391000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15070</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>56488</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4959</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0001202703889035203</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.141251865507857e-006</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.02425293867724119</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.0002301373743095879</v>
+      </c>
+      <c r="N18">
+        <v>295</v>
+      </c>
+      <c r="O18">
+        <v>1075</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ausria 1180</t>
+          <t>Austria 1180</t>
         </is>
       </c>
       <c r="B19">
@@ -1145,40 +1313,49 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19">
+        <v>1180</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Währing</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6347000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>14364</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>51327</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8087</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.000221206869387112</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2.363321254135812e-006</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.02735402419779064</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.000292243848266994</v>
+      </c>
+      <c r="N19">
+        <v>298</v>
+      </c>
+      <c r="O19">
+        <v>1106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ausria 1190</t>
+          <t>Austria 1190</t>
         </is>
       </c>
       <c r="B20">
@@ -1187,40 +1364,49 @@
       <c r="C20">
         <v>17</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20">
+        <v>1190</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Döbling</t>
         </is>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>24944000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>31901</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>73861</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2961</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.0001083627325208467</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6.815266196279667e-007</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.03659576772586345</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.0002301620611689525</v>
+      </c>
+      <c r="N20">
+        <v>558</v>
+      </c>
+      <c r="O20">
+        <v>2145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ausria 1200</t>
+          <t>Austria 1200</t>
         </is>
       </c>
       <c r="B21">
@@ -1229,40 +1415,49 @@
       <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21">
+        <v>1200</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Brigittenau</t>
         </is>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5710000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>29541</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>85264</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>14932</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.000315061295971979</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3.677758318739054e-006</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.02109917432914243</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0002462938637643085</v>
+      </c>
+      <c r="N21">
+        <v>362</v>
+      </c>
+      <c r="O21">
+        <v>1437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ausria 1210</t>
+          <t>Austria 1210</t>
         </is>
       </c>
       <c r="B22">
@@ -1271,40 +1466,49 @@
       <c r="C22">
         <v>36</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22">
+        <v>1210</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Floridsdorf</t>
         </is>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>44443000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>55691</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>173916</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3913</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0001623877776027721</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>8.100263258555903e-007</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.04149704455024265</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.000206996481059822</v>
+      </c>
+      <c r="N22">
+        <v>1430</v>
+      </c>
+      <c r="O22">
+        <v>5787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ausria 1220</t>
+          <t>Austria 1220</t>
         </is>
       </c>
       <c r="B23">
@@ -1313,40 +1517,49 @@
       <c r="C23">
         <v>34</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23">
+        <v>1220</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Donaustadt</t>
         </is>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>102299000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>63126</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>198806</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1943</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6.784035034555568e-005</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3.323590650935004e-007</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.03490840316690643</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.0001710209953421929</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>6939</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ausria 1230</t>
+          <t>Austria 1230</t>
         </is>
       </c>
       <c r="B24">
@@ -1355,34 +1568,43 @@
       <c r="C24">
         <v>26</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24">
+        <v>1230</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Liesing</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>32062000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>53963</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>111812</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3487</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.0001362984218077475</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>8.10928825400786e-007</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.03908346152470218</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.0002325331806961686</v>
+      </c>
+      <c r="N24">
+        <v>928</v>
+      </c>
+      <c r="O24">
+        <v>3442</v>
       </c>
     </row>
   </sheetData>
